--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H2">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I2">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J2">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.85346633333333</v>
+        <v>0.5158793333333334</v>
       </c>
       <c r="N2">
-        <v>83.560399</v>
+        <v>1.547638</v>
       </c>
       <c r="O2">
-        <v>0.3884083358054969</v>
+        <v>0.0225151453405981</v>
       </c>
       <c r="P2">
-        <v>0.3884083358054969</v>
+        <v>0.0225151453405981</v>
       </c>
       <c r="Q2">
-        <v>210.9336599126077</v>
+        <v>3.06689231908</v>
       </c>
       <c r="R2">
-        <v>1898.402939213469</v>
+        <v>27.60203087172</v>
       </c>
       <c r="S2">
-        <v>0.1746932750383099</v>
+        <v>0.01053537791181303</v>
       </c>
       <c r="T2">
-        <v>0.1746932750383099</v>
+        <v>0.01053537791181302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H3">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I3">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J3">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.079935</v>
       </c>
       <c r="O3">
-        <v>0.009668025782567244</v>
+        <v>0.03025903914481093</v>
       </c>
       <c r="P3">
-        <v>0.009668025782567244</v>
+        <v>0.03025903914481093</v>
       </c>
       <c r="Q3">
-        <v>5.250433305498333</v>
+        <v>4.1217239921</v>
       </c>
       <c r="R3">
-        <v>47.25389974948499</v>
+        <v>37.0955159289</v>
       </c>
       <c r="S3">
-        <v>0.004348359526344616</v>
+        <v>0.01415893203514441</v>
       </c>
       <c r="T3">
-        <v>0.004348359526344617</v>
+        <v>0.01415893203514441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.572976999999999</v>
+        <v>5.94498</v>
       </c>
       <c r="H4">
-        <v>22.718931</v>
+        <v>17.83494</v>
       </c>
       <c r="I4">
-        <v>0.4497670593913077</v>
+        <v>0.4679240463447598</v>
       </c>
       <c r="J4">
-        <v>0.4497670593913078</v>
+        <v>0.4679240463447597</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.16503600000001</v>
+        <v>21.70335633333333</v>
       </c>
       <c r="N4">
-        <v>129.495108</v>
+        <v>65.110069</v>
       </c>
       <c r="O4">
-        <v>0.601923638411936</v>
+        <v>0.947225815514591</v>
       </c>
       <c r="P4">
-        <v>0.6019236384119359</v>
+        <v>0.947225815514591</v>
       </c>
       <c r="Q4">
-        <v>326.887824832172</v>
+        <v>129.02601933454</v>
       </c>
       <c r="R4">
-        <v>2941.990423489548</v>
+        <v>1161.23417401086</v>
       </c>
       <c r="S4">
-        <v>0.2707254248266532</v>
+        <v>0.4432297363978023</v>
       </c>
       <c r="T4">
-        <v>0.2707254248266532</v>
+        <v>0.4432297363978023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J5">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85346633333333</v>
+        <v>0.5158793333333334</v>
       </c>
       <c r="N5">
-        <v>83.560399</v>
+        <v>1.547638</v>
       </c>
       <c r="O5">
-        <v>0.3884083358054969</v>
+        <v>0.0225151453405981</v>
       </c>
       <c r="P5">
-        <v>0.3884083358054969</v>
+        <v>0.0225151453405981</v>
       </c>
       <c r="Q5">
-        <v>77.5447651776359</v>
+        <v>1.436221304902889</v>
       </c>
       <c r="R5">
-        <v>697.9028865987232</v>
+        <v>12.925991744126</v>
       </c>
       <c r="S5">
-        <v>0.06422184584750677</v>
+        <v>0.004933702470743473</v>
       </c>
       <c r="T5">
-        <v>0.06422184584750677</v>
+        <v>0.004933702470743473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J6">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.079935</v>
       </c>
       <c r="O6">
-        <v>0.009668025782567244</v>
+        <v>0.03025903914481093</v>
       </c>
       <c r="P6">
-        <v>0.009668025782567244</v>
+        <v>0.03025903914481093</v>
       </c>
       <c r="Q6">
-        <v>1.930197474999445</v>
+        <v>1.930197474999444</v>
       </c>
       <c r="R6">
         <v>17.371777274995</v>
       </c>
       <c r="S6">
-        <v>0.001598571411115856</v>
+        <v>0.006630607705733398</v>
       </c>
       <c r="T6">
-        <v>0.001598571411115856</v>
+        <v>0.006630607705733398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>8.352077000000001</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="J7">
-        <v>0.165346208943536</v>
+        <v>0.219128164447035</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.16503600000001</v>
+        <v>21.70335633333333</v>
       </c>
       <c r="N7">
-        <v>129.495108</v>
+        <v>65.110069</v>
       </c>
       <c r="O7">
-        <v>0.601923638411936</v>
+        <v>0.947225815514591</v>
       </c>
       <c r="P7">
-        <v>0.6019236384119359</v>
+        <v>0.947225815514591</v>
       </c>
       <c r="Q7">
-        <v>120.1725681265907</v>
+        <v>60.42270108481255</v>
       </c>
       <c r="R7">
-        <v>1081.553113139316</v>
+        <v>543.804309763313</v>
       </c>
       <c r="S7">
-        <v>0.09952579168491335</v>
+        <v>0.2075638542705581</v>
       </c>
       <c r="T7">
-        <v>0.09952579168491334</v>
+        <v>0.2075638542705581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H8">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J8">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.85346633333333</v>
+        <v>0.5158793333333334</v>
       </c>
       <c r="N8">
-        <v>83.560399</v>
+        <v>1.547638</v>
       </c>
       <c r="O8">
-        <v>0.3884083358054969</v>
+        <v>0.0225151453405981</v>
       </c>
       <c r="P8">
-        <v>0.3884083358054969</v>
+        <v>0.0225151453405981</v>
       </c>
       <c r="Q8">
-        <v>180.5058090999497</v>
+        <v>2.05113880873</v>
       </c>
       <c r="R8">
-        <v>1624.552281899547</v>
+        <v>18.46024927857</v>
       </c>
       <c r="S8">
-        <v>0.1494932149196802</v>
+        <v>0.007046064958041599</v>
       </c>
       <c r="T8">
-        <v>0.1494932149196802</v>
+        <v>0.007046064958041599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H9">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J9">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.079935</v>
       </c>
       <c r="O9">
-        <v>0.009668025782567244</v>
+        <v>0.03025903914481093</v>
       </c>
       <c r="P9">
-        <v>0.009668025782567244</v>
+        <v>0.03025903914481093</v>
       </c>
       <c r="Q9">
-        <v>4.493041614728334</v>
+        <v>2.756610653225</v>
       </c>
       <c r="R9">
-        <v>40.437374532555</v>
+        <v>24.809495879025</v>
       </c>
       <c r="S9">
-        <v>0.00372109484510677</v>
+        <v>0.009469499403933124</v>
       </c>
       <c r="T9">
-        <v>0.003721094845106771</v>
+        <v>0.009469499403933124</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.480551000000001</v>
+        <v>3.976005</v>
       </c>
       <c r="H10">
-        <v>19.441653</v>
+        <v>11.928015</v>
       </c>
       <c r="I10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="J10">
-        <v>0.3848867316651562</v>
+        <v>0.3129477892082053</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.16503600000001</v>
+        <v>21.70335633333333</v>
       </c>
       <c r="N10">
-        <v>129.495108</v>
+        <v>65.110069</v>
       </c>
       <c r="O10">
-        <v>0.601923638411936</v>
+        <v>0.947225815514591</v>
       </c>
       <c r="P10">
-        <v>0.6019236384119359</v>
+        <v>0.947225815514591</v>
       </c>
       <c r="Q10">
-        <v>279.7332172148361</v>
+        <v>86.292653298115</v>
       </c>
       <c r="R10">
-        <v>2517.598954933525</v>
+        <v>776.6338796830349</v>
       </c>
       <c r="S10">
-        <v>0.2316724219003693</v>
+        <v>0.2964322248462306</v>
       </c>
       <c r="T10">
-        <v>0.2316724219003693</v>
+        <v>0.2964322248462306</v>
       </c>
     </row>
   </sheetData>
